--- a/characterCardLevelInfo_data.xlsx
+++ b/characterCardLevelInfo_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6780"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -43,6 +43,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <x:si>
+    <x:t>이동속도를 {0}만큼 증가시킵니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도를 {0}만큼 증가시킵니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력을 {0}만큼 증가시킵니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>increase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ~ 스킬을 획득합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~ 스킬을 획득합니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>흔한4</x:t>
   </x:si>
   <x:si>
@@ -55,82 +76,61 @@
     <x:t>흔한9</x:t>
   </x:si>
   <x:si>
+    <x:t>주몽6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽5</x:t>
+  </x:si>
+  <x:si>
     <x:t>흔한8</x:t>
   </x:si>
   <x:si>
-    <x:t>흔한5</x:t>
-  </x:si>
-  <x:si>
     <x:t>흔한7</x:t>
   </x:si>
   <x:si>
-    <x:t>주몽2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽5</x:t>
-  </x:si>
-  <x:si>
     <x:t>주몽8</x:t>
   </x:si>
   <x:si>
-    <x:t>주몽4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽9</x:t>
-  </x:si>
-  <x:si>
     <x:t>주몽7</x:t>
   </x:si>
   <x:si>
-    <x:t>주몽3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력을 {0}만큼 증가시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도를 {0}만큼 증가시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도를 {0}만큼 증가시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>~ 스킬을 획득합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ~ 스킬을 획득합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>increase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
+    <x:t>display_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한10</x:t>
   </x:si>
   <x:si>
     <x:t>주몽11</x:t>
   </x:si>
   <x:si>
     <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한11</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -575,12 +575,12 @@
   <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C22"/>
+      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="12.52734375" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="7.96875" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="33.41015625" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
@@ -590,35 +590,35 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -629,205 +629,205 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="3">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="3">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B18" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B20" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B21" s="3">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B22" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/characterCardLevelInfo_data.xlsx
+++ b/characterCardLevelInfo_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6780"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -43,94 +43,94 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>increase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도를 {0}만큼 증가시킵니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력을 {0}만큼 증가시킵니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>이동속도를 {0}만큼 증가시킵니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>공격속도를 {0}만큼 증가시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력을 {0}만큼 증가시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>increase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
+    <x:t>주몽11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~ 스킬을 획득합니다.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> ~ 스킬을 획득합니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>~ 스킬을 획득합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽8</x:t>
+    <x:t>display_name</x:t>
   </x:si>
   <x:si>
     <x:t>주몽7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>display_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -276,8 +276,406 @@
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
 </x:styleSheet>
 </file>
 
@@ -575,7 +973,7 @@
   <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
+      <x:selection activeCell="F16" activeCellId="0" sqref="F16:F16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -590,57 +988,57 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="3">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -651,51 +1049,51 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B7" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="3">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -703,131 +1101,131 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="3">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="3">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B14" s="3">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B15" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="3">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B17" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="B18" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B19" s="3">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B20" s="3">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B21" s="3">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B22" s="3">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
